--- a/biology/Zoologie/Cordulagomphinae/Cordulagomphinae.xlsx
+++ b/biology/Zoologie/Cordulagomphinae/Cordulagomphinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cordulagomphinae sont une sous-famille fossile de libellules de la famille des Proterogomphidae. 
 </t>
@@ -511,12 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Cordulagomphinae est décrite en 1990 par les paléontologues Carle (d) et Wighton (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Cordulagomphinae est décrite en 1990 par les paléontologues Carle (d) et Wighton (d),.
 En 2023 selon Paleobiology Database, c'est la seule sous-famille connue et référencée de la famille des Proterogomphidae qui comporte également deux genres non inclus.
-Fossiles
-Selon Paleobiology Database en 2023, cette sous-famille a onze collections référencées du Crétacé, neuf collections du Brésil, une de Chine, une du Royaume-Uni[2].
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, cette sous-famille a onze collections référencées du Crétacé, neuf collections du Brésil, une de Chine, une du Royaume-Uni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cordulagomphinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cordulagomphinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>†Cordulagomphus Carle &amp; Wighton, 1990 - genre type
 †Cratogomphus Bechly, 2010
